--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDABC0FD-FAD6-4943-A2FF-8E9511246578}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B91B0-BB30-4755-9AB0-CF65016AEE4D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grafik Kelas Multi" sheetId="2" r:id="rId2"/>
+    <sheet name="Grafik Kelas Kitab" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -77,6 +79,42 @@
   <si>
     <t>Accuracy</t>
   </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>K-1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Waktu (detik)</t>
+  </si>
+  <si>
+    <t>Tanpa Stemming</t>
+  </si>
+  <si>
+    <t>Nilai threshold 0.85</t>
+  </si>
+  <si>
+    <t>Nilai threshold 0.60</t>
+  </si>
+  <si>
+    <t>Nilai alpha -0.01</t>
+  </si>
+  <si>
+    <t>Nilai alpha -0.1</t>
+  </si>
+  <si>
+    <t>Nilai threshold 0.80</t>
+  </si>
+  <si>
+    <t>Nilai learning rate 0.1</t>
+  </si>
+  <si>
+    <t>Nilai learning rate 0.001</t>
+  </si>
 </sst>
 </file>
 
@@ -111,13 +149,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,6 +178,8336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian dengan stemming terhadap Hamming Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5069-4AC0-91AF-B0A9EB2031C6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5069-4AC0-91AF-B0A9EB2031C6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.7362982929020598E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5597484276729503E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5069-4AC0-91AF-B0A9EB2031C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2035562191"/>
+        <c:axId val="1127375"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2035562191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1127375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1127375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1705426356589147E-2"/>
+              <c:y val="0.34996500437445321"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035562191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian threshold Information Gain terhadap hasil Hamming</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nilai threshold 0.85</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.7362982929020598E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9618-4CD8-B47C-B2893629CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nilai threshold 0.60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct30">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.4353099730458203E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9618-4CD8-B47C-B2893629CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2037113455"/>
+        <c:axId val="2037746399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2037113455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2037746399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2037746399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.3779512977544473"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037113455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian dengan stemming </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>terhadap waktu komputasi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$D$39:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$E$39:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18356.445999899999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15818.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="118315999"/>
+        <c:axId val="174636975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="118315999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174636975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174636975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Waktu Komputasi (detik)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.30562481773111694"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118315999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian nilai aplha pada fungsi aktivasi sigmoid terhadap Hamming Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8418-418A-BE0E-3D426F0ECF7E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8418-418A-BE0E-3D426F0ECF7E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$D$56:$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai alpha -0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai alpha -0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$E$56:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.4002695417789704E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5597484276729503E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8418-418A-BE0E-3D426F0ECF7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2035789983"/>
+        <c:axId val="2027296031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2035789983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2027296031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027296031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.37332166812481771"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035789983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pengujian dengan stemming terhadap F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A5F2-4D16-B5CB-A1B92255C188}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A5F2-4D16-B5CB-A1B92255C188}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64.175824175824104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.999999999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5F2-4D16-B5CB-A1B92255C188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="168251807"/>
+        <c:axId val="2027245055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="168251807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2027245055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027245055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.36869203849518811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168251807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian threshold Information Gain terhadap hasil</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F167-4609-A777-9658AA5C1BF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F167-4609-A777-9658AA5C1BF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$21:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai threshold 0.80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai threshold 0.60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$21:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64.175824175824104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.076923076923002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F167-4609-A777-9658AA5C1BF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2035775839"/>
+        <c:axId val="1878496415"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2035775839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1878496415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1878496415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.40464129483814515"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035775839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian dengan stemming terhadap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> waktu komputasi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct30">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F754-40F9-847D-15E2283DCEB3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$38:$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$38:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4183.3899998699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5192.1569998300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F754-40F9-847D-15E2283DCEB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="11135183"/>
+        <c:axId val="1878525359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="11135183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1878525359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1878525359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Waktu Komputasi (detik)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.26756926217556137"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11135183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>learning rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pada proses </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>training classifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> terhadap F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-16E8-487D-B29C-F2B2BFA7E373}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-16E8-487D-B29C-F2B2BFA7E373}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$56:$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai learning rate 0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai learning rate 0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$56:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.065934065934002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16E8-487D-B29C-F2B2BFA7E373}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="168252223"/>
+        <c:axId val="172592575"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="168252223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172592575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172592575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168252223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AFD4D0-F48E-4ED2-8042-13179E45C984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F78CCB-E0C1-4112-88AE-C60F43416312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64F6ED2-7F40-4C6B-9C08-2A59CB187200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E2B7A1-AF24-4D23-9F07-33DDD20C1760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDFC639-F1C1-4ECF-B81F-C4DC188D1E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50F0C82-C133-462A-AB8D-73E40F682CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5C9CB7-9B7C-489A-8361-FC035DEC21F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BB7FB7-EE7E-4250-9C5E-0EACB2B5ED9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,190 +8807,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42FE71-91EB-41EF-B9C1-ACAFBFDB77BD}">
-  <dimension ref="B3:C28"/>
+  <dimension ref="B3:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2">
         <v>0.85</v>
       </c>
+      <c r="D8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>0.08</v>
       </c>
+      <c r="D11" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>-0.1</v>
       </c>
+      <c r="D12" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>4.9865229110500002E-2</v>
+        <v>5.5597484276729503E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.8703703703700001E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.3158131176998999E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.4002695417789704E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.7362982929020598E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.5615453728661201E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5.4353099730458203E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>80839.714000000007</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3410.9569997799999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14300.582</v>
+      </c>
+      <c r="F15" s="2">
+        <v>26214.098999999998</v>
+      </c>
+      <c r="G15" s="2">
+        <v>38819.400999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <v>15818.52</v>
+      </c>
+      <c r="I15" s="2">
+        <v>18356.445999899999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2">
-        <v>0.85</v>
+      <c r="C23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>10</v>
       </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>0.08</v>
       </c>
+      <c r="D26" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>-1</v>
       </c>
+      <c r="D27" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="J27" s="2">
+        <v>-0.01</v>
+      </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>47.252747252747199</v>
+      </c>
+      <c r="D29" s="2">
+        <v>60.439560439600001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>63.516483516483497</v>
+      </c>
+      <c r="F29" s="2">
+        <v>34.065934065934002</v>
+      </c>
+      <c r="G29" s="2">
+        <v>65.714285714285694</v>
+      </c>
+      <c r="H29" s="2">
+        <v>63.076923076923002</v>
+      </c>
+      <c r="I29" s="2">
+        <v>59.999999999999901</v>
+      </c>
+      <c r="J29" s="2">
+        <v>64.175824175824104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15205.555000099999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9743.6879999600005</v>
+      </c>
+      <c r="G30">
+        <v>4933.6059999500003</v>
+      </c>
+      <c r="H30">
+        <v>4275.3969998399998</v>
+      </c>
+      <c r="I30">
+        <v>5192.1569998300001</v>
+      </c>
+      <c r="J30">
+        <v>4183.3899998699999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
+  <dimension ref="D5:F57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:D57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.7362982929020598E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.5597484276729503E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.7362982929020598E-2</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5.4353099730458203E-2</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>18356.445999899999</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15818.52</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="2">
+        <v>6.4002695417789704E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5.5597484276729503E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
+  <dimension ref="C4:D57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>64.175824175824104</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>59.999999999999901</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2">
+        <v>64.175824175824104</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>63.076923076923002</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>4183.3899998699999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>5192.1569998300001</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="2">
+        <v>65.714285714285694</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="2">
+        <v>34.065934065934002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B91B0-BB30-4755-9AB0-CF65016AEE4D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2AC55-5C87-4AA7-BA93-D66068002965}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Grafik Kelas Multi" sheetId="2" r:id="rId2"/>
-    <sheet name="Grafik Kelas Kitab" sheetId="3" r:id="rId3"/>
+    <sheet name="Grafik Kelas Multi_FIX" sheetId="4" r:id="rId2"/>
+    <sheet name="Grafik Kelas Multi" sheetId="2" r:id="rId3"/>
+    <sheet name="Grafik Kelas Kitab" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -115,6 +116,15 @@
   <si>
     <t>Nilai learning rate 0.001</t>
   </si>
+  <si>
+    <t>Hidden Layer</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Satu JST</t>
+  </si>
 </sst>
 </file>
 
@@ -181,6 +191,3245 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian dengan stemming terhadap Hamming Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3C58-4296-94CD-E7E84AA84EDC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3C58-4296-94CD-E7E84AA84EDC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.34269005847953199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29005847953216302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3C58-4296-94CD-E7E84AA84EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2035562191"/>
+        <c:axId val="1127375"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2035562191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1127375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1127375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1705426356589147E-2"/>
+              <c:y val="0.34996500437445321"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035562191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian threshold Information Gain terhadap hasil</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F167-4609-A777-9658AA5C1BF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F167-4609-A777-9658AA5C1BF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$21:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai threshold 0.80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai threshold 0.60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$21:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64.175824175824104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.076923076923002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F167-4609-A777-9658AA5C1BF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2035775839"/>
+        <c:axId val="1878496415"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2035775839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1878496415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1878496415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.40464129483814515"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035775839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian dengan stemming terhadap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> waktu komputasi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct30">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F754-40F9-847D-15E2283DCEB3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$38:$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$38:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4183.3899998699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5192.1569998300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F754-40F9-847D-15E2283DCEB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="11135183"/>
+        <c:axId val="1878525359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="11135183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1878525359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1878525359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Waktu Komputasi (detik)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.26756926217556137"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11135183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>learning rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pada proses </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>training classifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> terhadap F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-16E8-487D-B29C-F2B2BFA7E373}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-16E8-487D-B29C-F2B2BFA7E373}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$56:$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai learning rate 0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai learning rate 0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$56:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.065934065934002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16E8-487D-B29C-F2B2BFA7E373}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="168252223"/>
+        <c:axId val="172592575"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="168252223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172592575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172592575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168252223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian threshold Information Gain terhadap hasil Hamming</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nilai threshold 0.85</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.341520467836257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D38D-4A2B-AD45-C83686174981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nilai threshold 0.60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct30">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.29005847953216302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D38D-4A2B-AD45-C83686174981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2037113455"/>
+        <c:axId val="2037746399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2037113455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2037746399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2037746399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.3779512977544473"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037113455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian dengan stemming </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>terhadap waktu komputasi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FA85-4747-864D-46EDA1EC4D73}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FA85-4747-864D-46EDA1EC4D73}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$D$39:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$E$39:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2889.4570000200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2724.2679998899998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FA85-4747-864D-46EDA1EC4D73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="118315999"/>
+        <c:axId val="174636975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="118315999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174636975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174636975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Waktu Komputasi (detik)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.30562481773111694"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118315999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian nilai aplha pada fungsi aktivasi sigmoid terhadap Hamming Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5B4D-4DD6-876A-9E995DDAC80F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5B4D-4DD6-876A-9E995DDAC80F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$D$56:$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai alpha -0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai alpha -0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$E$56:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.10667115902964949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2662473794549158E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5B4D-4DD6-876A-9E995DDAC80F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2035789983"/>
+        <c:axId val="2027296031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2035789983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2027296031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027296031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.37332166812481771"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035789983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -396,7 +3645,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$5:$D$6</c:f>
+              <c:f>'Grafik Kelas Multi'!$D$6:$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -410,15 +3659,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$5:$E$6</c:f>
+              <c:f>'Grafik Kelas Multi'!$E$6:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.7362982929020598E-2</c:v>
+                  <c:v>0.101572327044025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5597484276729503E-2</c:v>
+                  <c:v>8.8364779874213803E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,6 +3713,8 @@
         <c:axId val="1127375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -568,6 +3819,7 @@
         <c:crossAx val="2035562191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -652,7 +3904,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -738,7 +3990,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$22</c:f>
+              <c:f>'Grafik Kelas Multi'!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -822,12 +4074,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$22</c:f>
+              <c:f>'Grafik Kelas Multi'!$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.7362982929020598E-2</c:v>
+                  <c:v>0.10628930817609999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +4095,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$23</c:f>
+              <c:f>'Grafik Kelas Multi'!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -927,12 +4179,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$23</c:f>
+              <c:f>'Grafik Kelas Multi'!$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.4353099730458203E-2</c:v>
+                  <c:v>8.8364779874213803E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,6 +4231,8 @@
         <c:axId val="2037746399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1079,6 +4333,7 @@
         <c:crossAx val="2037113455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1163,7 +4418,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1379,7 +4634,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$39:$D$40</c:f>
+              <c:f>'Grafik Kelas Multi'!$D$40:$D$41</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1393,15 +4648,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$39:$E$40</c:f>
+              <c:f>'Grafik Kelas Multi'!$E$40:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18356.445999899999</c:v>
+                  <c:v>17438.7189999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15818.52</c:v>
+                  <c:v>16920.6819999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,6 +4703,7 @@
         <c:axId val="174636975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1548,6 +4804,8 @@
         <c:crossAx val="118315999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2000"/>
+        <c:minorUnit val="500"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1632,7 +4890,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1838,7 +5096,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$56:$D$57</c:f>
+              <c:f>'Grafik Kelas Multi'!$D$57:$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1852,15 +5110,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$56:$E$57</c:f>
+              <c:f>'Grafik Kelas Multi'!$E$57:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.4002695417789704E-2</c:v>
+                  <c:v>0.10503144654087999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5597484276729503E-2</c:v>
+                  <c:v>8.8364779874213803E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,6 +5165,8 @@
         <c:axId val="2027296031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2007,6 +5267,7 @@
         <c:crossAx val="2035789983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2091,7 +5352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2552,1323 +5813,127 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Skenario pengujian threshold Information Gain terhadap hasil</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> F1-Score</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct30">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F167-4609-A777-9658AA5C1BF7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="wdUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F167-4609-A777-9658AA5C1BF7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Grafik Kelas Kitab'!$C$21:$C$22</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Nilai threshold 0.80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nilai threshold 0.60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Grafik Kelas Kitab'!$D$21:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>64.175824175824104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.076923076923002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F167-4609-A777-9658AA5C1BF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2035775839"/>
-        <c:axId val="1878496415"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2035775839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1878496415"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1878496415"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>F1-Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.9444444444444445E-2"/>
-              <c:y val="0.40464129483814515"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2035775839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Skenario pengujian dengan stemming terhadap</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> waktu komputasi</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:pattFill prst="pct30">
-              <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="wdUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F754-40F9-847D-15E2283DCEB3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Grafik Kelas Kitab'!$C$38:$C$39</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Stemming</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tanpa Stemming</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Grafik Kelas Kitab'!$D$38:$D$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4183.3899998699999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5192.1569998300001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F754-40F9-847D-15E2283DCEB3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="11135183"/>
-        <c:axId val="1878525359"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="11135183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1878525359"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1878525359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Waktu Komputasi (detik)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.9444444444444445E-2"/>
-              <c:y val="0.26756926217556137"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="11135183"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Skenario pengujian</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" i="1" baseline="0"/>
-              <a:t>learning rate</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> pada proses </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" i="1" baseline="0"/>
-              <a:t>training classifier</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> terhadap F1-Score</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct30">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-16E8-487D-B29C-F2B2BFA7E373}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="wdUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-16E8-487D-B29C-F2B2BFA7E373}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Grafik Kelas Kitab'!$C$56:$C$57</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Nilai learning rate 0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nilai learning rate 0.001</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Grafik Kelas Kitab'!$D$56:$D$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>65.714285714285694</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.065934065934002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16E8-487D-B29C-F2B2BFA7E373}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="168252223"/>
-        <c:axId val="172592575"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="168252223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172592575"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="172592575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="168252223"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4188,6 +6253,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4691,7 +6796,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5194,7 +7299,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5697,7 +7802,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6200,7 +8305,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6703,7 +8808,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7206,7 +9311,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7709,7 +9814,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8217,26 +12334,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AFD4D0-F48E-4ED2-8042-13179E45C984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13528DEA-B620-4204-B29B-BB6883496AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8268,11 +12387,13 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F78CCB-E0C1-4112-88AE-C60F43416312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055BAB1C-14AE-482A-B5ED-FF8B07D1E19B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8304,11 +12425,13 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64F6ED2-7F40-4C6B-9C08-2A59CB187200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC20A8-0ACD-4587-8C70-7B1E3FC2CA7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8340,6 +12463,157 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286A7AE1-B73E-4BB9-8258-6E1A39D1BE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AFD4D0-F48E-4ED2-8042-13179E45C984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F78CCB-E0C1-4112-88AE-C60F43416312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64F6ED2-7F40-4C6B-9C08-2A59CB187200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E2B7A1-AF24-4D23-9F07-33DDD20C1760}"/>
             </a:ext>
           </a:extLst>
@@ -8361,7 +12635,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8809,8 +13083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42FE71-91EB-41EF-B9C1-ACAFBFDB77BD}">
   <dimension ref="B3:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8825,7 +13099,7 @@
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -8836,7 +13110,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -8847,7 +13121,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -8870,8 +13144,11 @@
       <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -8896,8 +13173,11 @@
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -8922,8 +13202,11 @@
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -8948,8 +13231,11 @@
       <c r="I8" s="2">
         <v>0.6</v>
       </c>
+      <c r="J8" s="2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -8974,8 +13260,11 @@
       <c r="I9" s="2">
         <v>10</v>
       </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -9000,8 +13289,11 @@
       <c r="I10" s="2">
         <v>1</v>
       </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -9026,8 +13318,11 @@
       <c r="I11" s="2">
         <v>0.08</v>
       </c>
+      <c r="J11" s="2">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -9052,8 +13347,11 @@
       <c r="I12" s="2">
         <v>-0.1</v>
       </c>
+      <c r="J12" s="2">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -9078,8 +13376,11 @@
       <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -9104,8 +13405,11 @@
       <c r="I14" s="2">
         <v>5.4353099730458203E-2</v>
       </c>
+      <c r="J14" s="2">
+        <v>5.87735849056603E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -9129,6 +13433,9 @@
       </c>
       <c r="I15" s="2">
         <v>18356.445999899999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20403.332999900002</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -9482,82 +13789,488 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
-  <dimension ref="D5:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
+  <dimension ref="D4:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:D57"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>6.7362982929020598E-2</v>
+        <v>0.34269005847953199</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2">
-        <v>5.5597484276729503E-2</v>
+        <v>0.29005847953216302</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>0.326315789473684</v>
+      </c>
+      <c r="T8">
+        <v>0.168421052631578</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9">
+        <v>0.28771929824561399</v>
+      </c>
+      <c r="T9">
+        <v>0.14502923976608101</v>
+      </c>
+      <c r="V9">
+        <v>0.12631578947368399</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0.08</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="2">
-        <v>6.7362982929020598E-2</v>
+        <v>0.341520467836257</v>
       </c>
       <c r="F22" s="2"/>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22">
+        <v>0.33801169590643199</v>
+      </c>
+      <c r="T22">
+        <v>0.21754385964912201</v>
+      </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2">
-        <v>5.4353099730458203E-2</v>
+        <v>0.29005847953216302</v>
       </c>
       <c r="F23" s="2"/>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23">
+        <v>0.28771929824561399</v>
+      </c>
+      <c r="T23">
+        <v>0.14502923976608101</v>
+      </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0.08</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="2">
-        <v>18356.445999899999</v>
+        <v>2889.4570000200001</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="2">
+        <v>4086.2999999499998</v>
+      </c>
+      <c r="T39">
+        <v>3853.37100005</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="2">
-        <v>15818.52</v>
+        <v>2724.2679998899998</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="2">
+        <v>3115.83400011</v>
+      </c>
+      <c r="T40">
+        <v>2820.4949998900001</v>
+      </c>
+      <c r="V40">
+        <v>1374.8610000599999</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="2">
-        <v>6.4002695417789704E-2</v>
+        <v>0.10667115902964949</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5597484276729503E-2</v>
+        <v>9.2662473794549158E-2</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57">
+        <v>0.28421052631578902</v>
+      </c>
+      <c r="T57">
+        <v>0.14269005847953201</v>
+      </c>
+    </row>
+    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58">
+        <v>0.28771929824561399</v>
+      </c>
+      <c r="T58">
+        <v>0.14502923976608101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
+  <dimension ref="D4:T58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0.101572327044025</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>0.117295597484276</v>
+      </c>
+      <c r="T6">
+        <v>0.101572327044025</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>8.8364779874213803E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7">
+        <v>0.10503144654087999</v>
+      </c>
+      <c r="T7">
+        <v>8.8364779874213803E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0.10628930817609999</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="Q23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.13207547169811301</v>
+      </c>
+      <c r="T23">
+        <v>0.10628930817609999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>8.8364779874213803E-2</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>0.10503144654087999</v>
+      </c>
+      <c r="T24">
+        <v>8.8364779874213803E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>17438.7189999</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40">
+        <v>31041.632999900001</v>
+      </c>
+      <c r="T40">
+        <v>17438.7189999</v>
+      </c>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>16920.6819999</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41">
+        <v>27698.4910002</v>
+      </c>
+      <c r="T41">
+        <v>16920.6819999</v>
+      </c>
+    </row>
+    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>0.10503144654087999</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>24</v>
+      </c>
+      <c r="T57">
+        <v>0.10503144654087999</v>
+      </c>
+    </row>
+    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58">
+        <v>8.8364779874213803E-2</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58">
+        <v>0.10503144654087999</v>
+      </c>
+      <c r="T58">
+        <v>8.8364779874213803E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9566,12 +14279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS\TEL-U\SEMESTER 8\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2AC55-5C87-4AA7-BA93-D66068002965}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126B451B-98E4-41E8-A743-654C2E1B8AF2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +425,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.34269005847953199</c:v>
+                  <c:v>0.168421052631578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29005847953216302</c:v>
+                  <c:v>0.14502923976608101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,7 +474,7 @@
         <c:axId val="1127375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.35000000000000003"/>
+          <c:max val="0.2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -942,6 +942,8 @@
         <c:axId val="1878496415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1042,6 +1044,7 @@
         <c:crossAx val="2035775839"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1860,6 +1863,7 @@
         <c:axId val="172592575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1897,6 +1901,7 @@
         <c:crossAx val="168252223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2156,7 +2161,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.341520467836257</c:v>
+                  <c:v>0.21754385964912201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,7 +2266,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.29005847953216302</c:v>
+                  <c:v>0.14502923976608101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,7 +2313,7 @@
         <c:axId val="2037746399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.35000000000000003"/>
+          <c:max val="0.25"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2730,10 +2735,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2889.4570000200001</c:v>
+                  <c:v>3853.37100005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2724.2679998899998</c:v>
+                  <c:v>2820.4949998900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,10 +3197,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.10667115902964949</c:v>
+                  <c:v>0.14269005847953201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2662473794549158E-2</c:v>
+                  <c:v>0.14502923976608101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5629,6 +5634,7 @@
         <c:axId val="2027245055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5729,6 +5735,7 @@
         <c:crossAx val="168251807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13100,29 +13107,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -13439,33 +13446,33 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -13792,8 +13799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="D4:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13807,23 +13814,23 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.34269005847953199</v>
+      <c r="E5">
+        <v>0.168421052631578</v>
       </c>
     </row>
     <row r="6" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.29005847953216302</v>
+      <c r="E6">
+        <v>0.14502923976608101</v>
       </c>
       <c r="T6" t="s">
         <v>30</v>
@@ -13870,7 +13877,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q21" t="s">
         <v>6</v>
@@ -13883,8 +13890,8 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.341520467836257</v>
+      <c r="E22">
+        <v>0.21754385964912201</v>
       </c>
       <c r="F22" s="2"/>
       <c r="Q22" t="s">
@@ -13901,8 +13908,8 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.29005847953216302</v>
+      <c r="E23">
+        <v>0.14502923976608101</v>
       </c>
       <c r="F23" s="2"/>
       <c r="Q23" t="s">
@@ -13920,7 +13927,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q38" t="s">
         <v>6</v>
@@ -13933,8 +13940,8 @@
       <c r="D39" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="2">
-        <v>2889.4570000200001</v>
+      <c r="E39">
+        <v>3853.37100005</v>
       </c>
       <c r="Q39" t="s">
         <v>7</v>
@@ -13950,8 +13957,8 @@
       <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="2">
-        <v>2724.2679998899998</v>
+      <c r="E40">
+        <v>2820.4949998900001</v>
       </c>
       <c r="Q40" t="s">
         <v>21</v>
@@ -13971,15 +13978,15 @@
         <v>6</v>
       </c>
       <c r="E55">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="2">
-        <v>0.10667115902964949</v>
+      <c r="E56">
+        <v>0.14269005847953201</v>
       </c>
       <c r="Q56" t="s">
         <v>6</v>
@@ -13992,8 +13999,8 @@
       <c r="D57" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="2">
-        <v>9.2662473794549158E-2</v>
+      <c r="E57">
+        <v>0.14502923976608101</v>
       </c>
       <c r="Q57" t="s">
         <v>24</v>
@@ -14027,7 +14034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
   <dimension ref="D4:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C48" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14284,7 +14291,7 @@
   <dimension ref="C4:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS\TEL-U\SEMESTER 8\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126B451B-98E4-41E8-A743-654C2E1B8AF2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430E5573-1C31-4BF9-8E32-C6F9CFBAF898}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" activeTab="3" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2785,6 +2785,7 @@
         <c:axId val="174636975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5000"/>
           <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2886,7 +2887,7 @@
         <c:crossAx val="118315999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="500"/>
+        <c:majorUnit val="1000"/>
         <c:minorUnit val="500"/>
       </c:valAx>
       <c:spPr>
@@ -13799,8 +13800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="D4:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView topLeftCell="C51" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14034,7 +14035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
   <dimension ref="D4:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="C48" workbookViewId="0"/>
+    <sheetView topLeftCell="C11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14290,7 +14291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS\TEL-U\SEMESTER 8\Tugas_Akhir\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430E5573-1C31-4BF9-8E32-C6F9CFBAF898}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFC7D8-CA75-4EDF-BE3C-950BFBBFB99C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" activeTab="3" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -13800,8 +13800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="D4:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="C51" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView topLeftCell="I46" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13858,6 +13858,9 @@
       <c r="T8">
         <v>0.168421052631578</v>
       </c>
+      <c r="V8">
+        <v>0.121637426900584</v>
+      </c>
     </row>
     <row r="9" spans="4:22" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
@@ -13873,7 +13876,7 @@
         <v>0.12631578947368399</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>22</v>
       </c>
@@ -13904,8 +13907,11 @@
       <c r="T22">
         <v>0.21754385964912201</v>
       </c>
+      <c r="V22">
+        <v>0.16725146198830401</v>
+      </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>23</v>
       </c>
@@ -13921,6 +13927,9 @@
       </c>
       <c r="T23">
         <v>0.14502923976608101</v>
+      </c>
+      <c r="V23">
+        <v>0.12631578947368399</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.25">
@@ -13953,6 +13962,9 @@
       <c r="T39">
         <v>3853.37100005</v>
       </c>
+      <c r="V39">
+        <v>1276.3669998600001</v>
+      </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
@@ -13971,10 +13983,10 @@
         <v>2820.4949998900001</v>
       </c>
       <c r="V40">
-        <v>1374.8610000599999</v>
+        <v>927.89699983599996</v>
       </c>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>6</v>
       </c>
@@ -13982,7 +13994,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>24</v>
       </c>
@@ -13996,7 +14008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>25</v>
       </c>
@@ -14012,8 +14024,11 @@
       <c r="T57">
         <v>0.14269005847953201</v>
       </c>
+      <c r="V57">
+        <v>0.11812865497076</v>
+      </c>
     </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:22" x14ac:dyDescent="0.25">
       <c r="Q58" t="s">
         <v>25</v>
       </c>
@@ -14022,6 +14037,9 @@
       </c>
       <c r="T58">
         <v>0.14502923976608101</v>
+      </c>
+      <c r="V58">
+        <v>0.12631578947368399</v>
       </c>
     </row>
   </sheetData>
@@ -14033,9 +14051,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
-  <dimension ref="D4:T58"/>
+  <dimension ref="D4:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14043,7 +14063,7 @@
     <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -14051,30 +14071,18 @@
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="Q5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -14084,14 +14092,8 @@
       <c r="Q6" t="s">
         <v>7</v>
       </c>
-      <c r="R6">
-        <v>0.117295597484276</v>
-      </c>
-      <c r="T6">
-        <v>0.101572327044025</v>
-      </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -14102,41 +14104,26 @@
         <v>21</v>
       </c>
       <c r="R7">
-        <v>0.10503144654087999</v>
-      </c>
-      <c r="T7">
-        <v>8.8364779874213803E-2</v>
+        <v>7.2641509433962206E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22">
         <v>0.1</v>
       </c>
-      <c r="Q22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -14147,14 +14134,9 @@
       <c r="Q23" t="s">
         <v>22</v>
       </c>
-      <c r="R23" s="2">
-        <v>0.13207547169811301</v>
-      </c>
-      <c r="T23">
-        <v>0.10628930817609999</v>
-      </c>
+      <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>23</v>
       </c>
@@ -14166,41 +14148,26 @@
         <v>23</v>
       </c>
       <c r="R24">
-        <v>0.10503144654087999</v>
-      </c>
-      <c r="T24">
-        <v>8.8364779874213803E-2</v>
+        <v>7.2641509433962206E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>29</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
-      <c r="Q38" t="s">
-        <v>29</v>
-      </c>
-      <c r="R38">
-        <v>10</v>
-      </c>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39">
         <v>0.1</v>
       </c>
-      <c r="Q39" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>7</v>
       </c>
@@ -14210,14 +14177,8 @@
       <c r="Q40" t="s">
         <v>7</v>
       </c>
-      <c r="R40">
-        <v>31041.632999900001</v>
-      </c>
-      <c r="T40">
-        <v>17438.7189999</v>
-      </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>21</v>
       </c>
@@ -14228,29 +14189,10 @@
         <v>21</v>
       </c>
       <c r="R41">
-        <v>27698.4910002</v>
-      </c>
-      <c r="T41">
-        <v>16920.6819999</v>
+        <v>6331.3729999099996</v>
       </c>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="Q55" t="s">
-        <v>29</v>
-      </c>
-      <c r="R55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="Q56" t="s">
-        <v>6</v>
-      </c>
-      <c r="R56">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>24</v>
       </c>
@@ -14260,11 +14202,8 @@
       <c r="Q57" t="s">
         <v>24</v>
       </c>
-      <c r="T57">
-        <v>0.10503144654087999</v>
-      </c>
     </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>25</v>
       </c>
@@ -14275,10 +14214,7 @@
         <v>25</v>
       </c>
       <c r="R58">
-        <v>0.10503144654087999</v>
-      </c>
-      <c r="T58">
-        <v>8.8364779874213803E-2</v>
+        <v>7.2641509433962206E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14291,7 +14227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFC7D8-CA75-4EDF-BE3C-950BFBBFB99C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7480A8-9B53-4D42-B43D-27DCF6DFDF4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13800,8 +13800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="D4:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="I46" workbookViewId="0">
-      <selection activeCell="V60" sqref="V60"/>
+    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
+      <selection activeCell="V57" sqref="V57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14025,7 +14025,7 @@
         <v>0.14269005847953201</v>
       </c>
       <c r="V57">
-        <v>0.11812865497076</v>
+        <v>7.3899371069182304E-2</v>
       </c>
     </row>
     <row r="58" spans="4:22" x14ac:dyDescent="0.25">
@@ -14053,8 +14053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
   <dimension ref="D4:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView topLeftCell="E55" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14092,6 +14092,9 @@
       <c r="Q6" t="s">
         <v>7</v>
       </c>
+      <c r="R6">
+        <v>0.117295597484276</v>
+      </c>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -14134,7 +14137,9 @@
       <c r="Q23" t="s">
         <v>22</v>
       </c>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2">
+        <v>9.5911949685534501E-2</v>
+      </c>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
@@ -14177,6 +14182,9 @@
       <c r="Q40" t="s">
         <v>7</v>
       </c>
+      <c r="R40">
+        <v>8184.46300006</v>
+      </c>
     </row>
     <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
@@ -14201,6 +14209,9 @@
       </c>
       <c r="Q57" t="s">
         <v>24</v>
+      </c>
+      <c r="R57">
+        <v>9.6226415094339601E-2</v>
       </c>
     </row>
     <row r="58" spans="4:18" x14ac:dyDescent="0.25">

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS\TEL-U\SEMESTER 8\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7480A8-9B53-4D42-B43D-27DCF6DFDF4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E67F54-1166-4525-B6A5-04DC2AF0FB45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -120,10 +120,7 @@
     <t>Hidden Layer</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Satu JST</t>
+    <t>Tiga JST</t>
   </si>
 </sst>
 </file>
@@ -406,7 +403,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$D$5:$D$6</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$5:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -420,15 +417,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$E$5:$E$6</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$5:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.168421052631578</c:v>
+                  <c:v>0.121637426900584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14502923976608101</c:v>
+                  <c:v>0.12631578947368399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,7 +471,7 @@
         <c:axId val="1127375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="0.14000000000000001"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -580,7 +577,7 @@
         <c:crossAx val="2035562191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2072,7 +2069,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$D$22</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2156,12 +2153,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$E$22</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.21754385964912201</c:v>
+                  <c:v>0.16725146198830401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2174,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$D$23</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,12 +2258,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$E$23</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.14502923976608101</c:v>
+                  <c:v>0.12631578947368399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2313,7 +2310,7 @@
         <c:axId val="2037746399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.25"/>
+          <c:max val="0.18000000000000002"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2415,7 +2412,7 @@
         <c:crossAx val="2037113455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2716,7 +2713,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$D$39:$D$40</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$39:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2730,15 +2727,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$E$39:$E$40</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$39:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3853.37100005</c:v>
+                  <c:v>1276.3669998600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2820.4949998900001</c:v>
+                  <c:v>927.89699983599996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,8 +2782,8 @@
         <c:axId val="174636975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="1500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2887,8 +2884,7 @@
         <c:crossAx val="118315999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1000"/>
-        <c:minorUnit val="500"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3179,7 +3175,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$D$56:$D$57</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$56:$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3193,15 +3189,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi_FIX'!$E$56:$E$57</c:f>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$56:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.14269005847953201</c:v>
+                  <c:v>7.3899371069182304E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14502923976608101</c:v>
+                  <c:v>0.12631578947368399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,7 +3244,7 @@
         <c:axId val="2027296031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.15000000000000002"/>
+          <c:max val="0.14000000000000001"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3350,7 +3346,7 @@
         <c:crossAx val="2035789983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3651,7 +3647,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$6:$D$7</c:f>
+              <c:f>'Grafik Kelas Multi'!$A$6:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3665,15 +3661,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$6:$E$7</c:f>
+              <c:f>'Grafik Kelas Multi'!$B$6:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.101572327044025</c:v>
+                  <c:v>0.117295597484276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8364779874213803E-2</c:v>
+                  <c:v>7.2641509433962206E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3715,7 @@
         <c:axId val="1127375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.15000000000000002"/>
+          <c:max val="0.12000000000000001"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3825,7 +3821,7 @@
         <c:crossAx val="2035562191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3996,7 +3992,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$23</c:f>
+              <c:f>'Grafik Kelas Multi'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4080,12 +4076,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$23</c:f>
+              <c:f>'Grafik Kelas Multi'!$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.10628930817609999</c:v>
+                  <c:v>9.5911949685534501E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,7 +4097,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$24</c:f>
+              <c:f>'Grafik Kelas Multi'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4185,12 +4181,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$24</c:f>
+              <c:f>'Grafik Kelas Multi'!$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.8364779874213803E-2</c:v>
+                  <c:v>7.2641509433962206E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,7 +4233,7 @@
         <c:axId val="2037746399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.15000000000000002"/>
+          <c:max val="0.1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4339,7 +4335,7 @@
         <c:crossAx val="2037113455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4640,7 +4636,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$40:$D$41</c:f>
+              <c:f>'Grafik Kelas Multi'!$A$40:$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4654,15 +4650,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$40:$E$41</c:f>
+              <c:f>'Grafik Kelas Multi'!$B$40:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17438.7189999</c:v>
+                  <c:v>8184.46300006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16920.6819999</c:v>
+                  <c:v>6331.3729999099996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4709,7 +4705,8 @@
         <c:axId val="174636975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10000"/>
+          <c:max val="9000"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4810,7 +4807,7 @@
         <c:crossAx val="118315999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2000"/>
+        <c:majorUnit val="1000"/>
         <c:minorUnit val="500"/>
       </c:valAx>
       <c:spPr>
@@ -5102,7 +5099,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$D$57:$D$58</c:f>
+              <c:f>'Grafik Kelas Multi'!$A$57:$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5116,15 +5113,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$E$57:$E$58</c:f>
+              <c:f>'Grafik Kelas Multi'!$B$57:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.10503144654087999</c:v>
+                  <c:v>9.6226415094339601E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8364779874213803E-2</c:v>
+                  <c:v>7.2641509433962206E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,7 +5168,7 @@
         <c:axId val="2027296031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.15000000000000002"/>
+          <c:max val="0.12000000000000001"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5273,7 +5270,7 @@
         <c:crossAx val="2035789983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -12341,13 +12338,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -12379,13 +12376,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -12417,13 +12414,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -12455,13 +12452,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -12498,16 +12495,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12534,13 +12531,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -12570,13 +12567,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -12606,13 +12603,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -13798,248 +13795,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
-  <dimension ref="D4:V58"/>
+  <dimension ref="A4:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
-      <selection activeCell="V57" sqref="V57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="B4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="B5">
+        <v>0.121637426900584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
         <v>0.168421052631578</v>
       </c>
     </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
+      <c r="N9">
         <v>0.14502923976608101</v>
       </c>
-      <c r="T6" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="Q7" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="R7">
+      <c r="B21">
         <v>0.1</v>
       </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="Q8" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.16725146198830401</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>0.21754385964912201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23">
+        <v>0.14502923976608101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>0.1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>0.326315789473684</v>
-      </c>
-      <c r="T8">
-        <v>0.168421052631578</v>
-      </c>
-      <c r="V8">
-        <v>0.121637426900584</v>
+      <c r="B39">
+        <v>1276.3669998600001</v>
+      </c>
+      <c r="M39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39">
+        <v>3853.37100005</v>
       </c>
     </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="Q9" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>21</v>
       </c>
-      <c r="R9">
-        <v>0.28771929824561399</v>
-      </c>
-      <c r="T9">
+      <c r="B40">
+        <v>927.89699983599996</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>2820.4949998900001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>7.3899371069182304E-2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57">
+        <v>0.14269005847953201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58">
         <v>0.14502923976608101</v>
-      </c>
-      <c r="V9">
-        <v>0.12631578947368399</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>0.1</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>0.21754385964912201</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="Q22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22">
-        <v>0.33801169590643199</v>
-      </c>
-      <c r="T22">
-        <v>0.21754385964912201</v>
-      </c>
-      <c r="V22">
-        <v>0.16725146198830401</v>
-      </c>
-    </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>0.14502923976608101</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="Q23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23">
-        <v>0.28771929824561399</v>
-      </c>
-      <c r="T23">
-        <v>0.14502923976608101</v>
-      </c>
-      <c r="V23">
-        <v>0.12631578947368399</v>
-      </c>
-    </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <v>0.1</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>3853.37100005</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" s="2">
-        <v>4086.2999999499998</v>
-      </c>
-      <c r="T39">
-        <v>3853.37100005</v>
-      </c>
-      <c r="V39">
-        <v>1276.3669998600001</v>
-      </c>
-    </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40">
-        <v>2820.4949998900001</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="2">
-        <v>3115.83400011</v>
-      </c>
-      <c r="T40">
-        <v>2820.4949998900001</v>
-      </c>
-      <c r="V40">
-        <v>927.89699983599996</v>
-      </c>
-    </row>
-    <row r="55" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="56" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56">
-        <v>0.14269005847953201</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>6</v>
-      </c>
-      <c r="R56">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57">
-        <v>0.14502923976608101</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R57">
-        <v>0.28421052631578902</v>
-      </c>
-      <c r="T57">
-        <v>0.14269005847953201</v>
-      </c>
-      <c r="V57">
-        <v>7.3899371069182304E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="Q58" t="s">
-        <v>25</v>
-      </c>
-      <c r="R58">
-        <v>0.28771929824561399</v>
-      </c>
-      <c r="T58">
-        <v>0.14502923976608101</v>
-      </c>
-      <c r="V58">
-        <v>0.12631578947368399</v>
       </c>
     </row>
   </sheetData>
@@ -14051,181 +13988,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
-  <dimension ref="D4:R58"/>
+  <dimension ref="A4:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
-        <v>31</v>
+      <c r="M4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="B5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="B6">
+        <v>0.117295597484276</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
         <v>0.101572327044025</v>
       </c>
-      <c r="Q6" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>7.2641509433962206E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7">
+        <v>8.8364779874213803E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.5911949685534501E-2</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>0.10628930817609999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7.2641509433962206E-2</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>8.8364779874213803E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="R6">
-        <v>0.117295597484276</v>
+      <c r="B40">
+        <v>8184.46300006</v>
+      </c>
+      <c r="M40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <v>17438.7189999</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="B41">
+        <v>6331.3729999099996</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>16920.6819999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>9.6226415094339601E-2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57">
+        <v>0.10503144654087999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>7.2641509433962206E-2</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58">
         <v>8.8364779874213803E-2</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7">
-        <v>7.2641509433962206E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>0.10628930817609999</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="Q23" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="2">
-        <v>9.5911949685534501E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>8.8364779874213803E-2</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="Q24" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24">
-        <v>7.2641509433962206E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40">
-        <v>17438.7189999</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40">
-        <v>8184.46300006</v>
-      </c>
-    </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41">
-        <v>16920.6819999</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41">
-        <v>6331.3729999099996</v>
-      </c>
-    </row>
-    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57">
-        <v>0.10503144654087999</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R57">
-        <v>9.6226415094339601E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58">
-        <v>8.8364779874213803E-2</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>25</v>
-      </c>
-      <c r="R58">
-        <v>7.2641509433962206E-2</v>
       </c>
     </row>
   </sheetData>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS\TEL-U\SEMESTER 8\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E67F54-1166-4525-B6A5-04DC2AF0FB45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81E91D-C0FE-4D6C-B35B-3E45FE61B954}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Tiga JST</t>
+  </si>
+  <si>
+    <t>Nilai alpha 0.01</t>
+  </si>
+  <si>
+    <t>Nilai alpha 0.1</t>
   </si>
 </sst>
 </file>
@@ -696,6 +702,941 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Skenario pengujian </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>learning rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> pada proses </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>training classifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> terhadap Hamming Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1400" i="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13570122484689418"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AC9B-4C2B-B10D-C054B9B10194}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AC9B-4C2B-B10D-C054B9B10194}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$A$75:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai learning rate 0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai learning rate 0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$B$75:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.2641509433962206E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10974842767295501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC9B-4C2B-B10D-C054B9B10194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="264543440"/>
+        <c:axId val="781034560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="264543440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="781034560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="781034560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Hamming Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264543440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pengujian dengan stemming terhadap F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A5F2-4D16-B5CB-A1B92255C188}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A5F2-4D16-B5CB-A1B92255C188}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Kitab'!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64.175824175824104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.999999999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5F2-4D16-B5CB-A1B92255C188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="168251807"/>
+        <c:axId val="2027245055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="168251807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2027245055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027245055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.36869203849518811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168251807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Skenario pengujian threshold Information Gain terhadap hasil</a:t>
             </a:r>
@@ -1126,7 +2067,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1568,7 +2509,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3179,10 +4120,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Nilai alpha -0.01</c:v>
+                  <c:v>Nilai alpha 0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Nilai alpha -0.1</c:v>
+                  <c:v>Nilai alpha 0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3432,6 +4373,489 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Skenario pengujian </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>learning rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> pada proses </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>training classifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> terhadap Hamming Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13570122484689418"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AD45-4FC3-9B90-8C085A4F41A2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AD45-4FC3-9B90-8C085A4F41A2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$74:$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai learning rate 0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai learning rate 0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$74:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.12631578947368399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.208187134502923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD45-4FC3-9B90-8C085A4F41A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="274225632"/>
+        <c:axId val="767259808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="274225632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="767259808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="767259808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Hamming</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t> Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274225632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3906,7 +5330,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4420,7 +5844,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4893,7 +6317,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5103,10 +6527,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Nilai alpha -0.01</c:v>
+                  <c:v>Nilai alpha 0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Nilai alpha -0.1</c:v>
+                  <c:v>Nilai alpha 0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5355,469 +6779,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Skenario</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> pengujian dengan stemming terhadap F1-Score</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct30">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A5F2-4D16-B5CB-A1B92255C188}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="wdUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-A5F2-4D16-B5CB-A1B92255C188}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Grafik Kelas Kitab'!$C$4:$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Stemming</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tanpa Stemming</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Grafik Kelas Kitab'!$D$4:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>64.175824175824104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59.999999999999901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5F2-4D16-B5CB-A1B92255C188}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="168251807"/>
-        <c:axId val="2027245055"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="168251807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2027245055"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2027245055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>F1-Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.9444444444444445E-2"/>
-              <c:y val="0.36869203849518811"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="168251807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5939,6 +6900,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8310,6 +9351,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -12488,6 +14535,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C1254E-FBA6-42E5-9D39-6E3AB015647D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12632,6 +14715,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F4D6F9-1159-47AD-A797-759C195CB081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13795,15 +15914,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
-  <dimension ref="A4:N58"/>
+  <dimension ref="A4:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13948,7 +16067,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>7.3899371069182304E-2</v>
@@ -13959,7 +16078,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0.12631578947368399</v>
@@ -13977,6 +16096,22 @@
       </c>
       <c r="N58">
         <v>0.14502923976608101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74">
+        <v>0.12631578947368399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>0.208187134502923</v>
       </c>
     </row>
   </sheetData>
@@ -13988,15 +16123,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
-  <dimension ref="A4:N58"/>
+  <dimension ref="A4:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
@@ -14140,7 +16275,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>9.6226415094339601E-2</v>
@@ -14154,7 +16289,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>7.2641509433962206E-2</v>
@@ -14164,6 +16299,22 @@
       </c>
       <c r="N58">
         <v>8.8364779874213803E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75">
+        <v>7.2641509433962206E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>0.10974842767295501</v>
       </c>
     </row>
   </sheetData>
@@ -14176,8 +16327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS\TEL-U\SEMESTER 8\Tugas_Akhir\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81E91D-C0FE-4D6C-B35B-3E45FE61B954}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740C68A-B9C3-42C1-A09E-EA00CC653126}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="2" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -133,6 +133,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,6 +706,468 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian nilai aplha pada fungsi aktivasi sigmoid terhadap Hamming Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8418-418A-BE0E-3D426F0ECF7E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8418-418A-BE0E-3D426F0ECF7E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$A$57:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nilai alpha 0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nilai alpha 0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$B$57:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.6226415094339601E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2641509433962206E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8418-418A-BE0E-3D426F0ECF7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2035789983"/>
+        <c:axId val="2027296031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2035789983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2027296031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027296031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.37332166812481771"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2035789983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -1140,7 +1606,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1603,7 +2069,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2067,7 +2533,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2509,7 +2975,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4890,6 +5356,555 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian nilai </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1"/>
+              <a:t>learning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t> rate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="0" baseline="0"/>
+              <a:t>pada proses </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>training classifier </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="0" baseline="0"/>
+              <a:t>terhadap Hamming Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$92:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$92:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11812865497076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11578947368421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11812865497076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11578947368421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.116959064327485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11812865497076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11812865497076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.119298245614035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11812865497076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88DD-4DDA-B874-397F45D66FF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="950023408"/>
+        <c:axId val="955488736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="950023408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Learning</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43938079615048115"/>
+              <c:y val="0.89719889180519097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955488736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="955488736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.33303623505395152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950023408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Skenario pengujian dengan stemming terhadap Hamming Loss</a:t>
             </a:r>
             <a:r>
@@ -5330,7 +6345,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5844,7 +6859,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6317,468 +7332,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Skenario pengujian nilai aplha pada fungsi aktivasi sigmoid terhadap Hamming Loss</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct30">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8418-418A-BE0E-3D426F0ECF7E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="wdUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-8418-418A-BE0E-3D426F0ECF7E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$A$57:$A$58</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Nilai alpha 0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nilai alpha 0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$B$57:$B$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>9.6226415094339601E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2641509433962206E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8418-418A-BE0E-3D426F0ECF7E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2035789983"/>
-        <c:axId val="2027296031"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2035789983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2027296031"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2027296031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.12000000000000001"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Hamming Loss</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.9444444444444445E-2"/>
-              <c:y val="0.37332166812481771"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2035789983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6980,6 +7533,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10357,6 +10950,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -14566,6 +15662,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06611971-71F0-4056-AB78-95218DFC6614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15914,15 +17046,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
-  <dimension ref="A4:N75"/>
+  <dimension ref="A4:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16112,6 +17245,94 @@
       </c>
       <c r="B75">
         <v>0.208187134502923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.01</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.02</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.11812865497076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.03</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.11578947368421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.04</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.11812865497076</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.05</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.11578947368421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.06</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.116959064327485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.11812865497076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.08</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.11812865497076</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.09</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.119298245614035</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.1</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.11812865497076</v>
       </c>
     </row>
   </sheetData>
@@ -16125,8 +17346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
   <dimension ref="A4:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16327,8 +17548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740C68A-B9C3-42C1-A09E-EA00CC653126}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70493115-F7B8-467D-9EBC-BA421899C0F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="36">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -128,13 +128,23 @@
   <si>
     <t>Nilai alpha 0.1</t>
   </si>
+  <si>
+    <t>Nilai Threshold</t>
+  </si>
+  <si>
+    <t>Fitur</t>
+  </si>
+  <si>
+    <t>Fitur Awal = 1407</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -165,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +190,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,13 +440,13 @@
             <c:numRef>
               <c:f>'Grafik Kelas Multi_FIX'!$B$5:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.121637426900584</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.122807017543859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12631578947368399</c:v>
+                  <c:v>0.119298245614035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,6 +684,479 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skenario pengujian dengan stemming </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>terhadap waktu komputasi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct30">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafik Kelas Multi'!$A$40:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stemming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tanpa Stemming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi'!$B$40:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8184.46300006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6331.3729999099996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="118315999"/>
+        <c:axId val="174636975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="118315999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174636975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174636975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Waktu Komputasi (detik)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.30562481773111694"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118315999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1134,7 +1618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1606,7 +2090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2069,7 +2553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2533,7 +3017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2975,7 +3459,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3667,10 +4151,10 @@
             <c:numRef>
               <c:f>'Grafik Kelas Multi_FIX'!$B$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.12631578947368399</c:v>
+                  <c:v>0.119298245614035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,10 +4623,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1276.3669998600001</c:v>
+                  <c:v>1669.7950000799999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>927.89699983599996</c:v>
+                  <c:v>1493.53699994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,7 +4673,7 @@
         <c:axId val="174636975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="1750"/>
           <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4598,13 +5082,13 @@
             <c:numRef>
               <c:f>'Grafik Kelas Multi_FIX'!$B$56:$B$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>7.3899371069182304E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12631578947368399</c:v>
+                  <c:v>0.119298245614035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5090,8 +5574,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.12631578947368399</c:v>
+                <c:pt idx="0" formatCode="0.000000000">
+                  <c:v>0.119298245614035</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.208187134502923</c:v>
@@ -5203,7 +5687,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5538,34 +6022,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.120467836257309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11812865497076</c:v>
+                  <c:v>0.119298245614035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11578947368421</c:v>
+                  <c:v>0.123976608187134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11812865497076</c:v>
+                  <c:v>0.12514619883040901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11578947368421</c:v>
+                  <c:v>0.120467836257309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.116959064327485</c:v>
+                  <c:v>0.130994152046783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11812865497076</c:v>
+                  <c:v>0.123976608187134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11812865497076</c:v>
+                  <c:v>0.120467836257309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.119298245614035</c:v>
+                  <c:v>0.123976608187134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11812865497076</c:v>
+                  <c:v>0.119298245614035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,6 +6301,8 @@
         <c:crossAx val="950023408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
+        <c:minorUnit val="4.0000000000000013E-4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5871,6 +6357,516 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Skenario pengujian nilai </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>threshold IG </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>pada terhadap Hamming Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$A$111:$A$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Multi_FIX'!$B$111:$B$117</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.119298245614035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12631578947368399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121637426900584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11578947368421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.122807017543859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15906432748537999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91A6-4E56-8A4D-A64B7422EAA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1076398080"/>
+        <c:axId val="951779600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1076398080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threshold</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Information Gain</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32476968503937009"/>
+              <c:y val="0.88793963254593178"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951779600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="951779600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hamming Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.39521216097987749"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076398080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6345,7 +7341,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6859,479 +7855,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Skenario pengujian dengan stemming </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>terhadap waktu komputasi</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct30">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="wdUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Grafik Kelas Multi'!$A$40:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Stemming</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tanpa Stemming</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Grafik Kelas Multi'!$B$40:$B$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8184.46300006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6331.3729999099996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA9E-4EBF-9FE0-0CF600B2B4CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="118315999"/>
-        <c:axId val="174636975"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="118315999"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174636975"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="174636975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="9000"/>
-          <c:min val="5000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Waktu Komputasi (detik)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.9444444444444445E-2"/>
-              <c:y val="0.30562481773111694"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="118315999"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1000"/>
-        <c:minorUnit val="500"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7573,6 +8096,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11453,6 +12016,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15698,6 +16764,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE6C51B-1FEA-4385-8262-5384B12A86DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17046,16 +18148,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
-  <dimension ref="A4:N101"/>
+  <dimension ref="A4:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17072,15 +18174,15 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.121637426900584</v>
+        <v>0.122807017543859</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>0.12631578947368399</v>
+      <c r="B6" s="6">
+        <v>0.119298245614035</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
@@ -17140,8 +18242,8 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0.12631578947368399</v>
+      <c r="B23" s="6">
+        <v>0.119298245614035</v>
       </c>
       <c r="C23" s="2"/>
       <c r="M23" t="s">
@@ -17167,7 +18269,7 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>1276.3669998600001</v>
+        <v>1669.7950000799999</v>
       </c>
       <c r="M39" t="s">
         <v>7</v>
@@ -17181,7 +18283,7 @@
         <v>21</v>
       </c>
       <c r="B40">
-        <v>927.89699983599996</v>
+        <v>1493.53699994</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
@@ -17213,8 +18315,8 @@
       <c r="A57" t="s">
         <v>32</v>
       </c>
-      <c r="B57">
-        <v>0.12631578947368399</v>
+      <c r="B57" s="6">
+        <v>0.119298245614035</v>
       </c>
       <c r="M57" t="s">
         <v>24</v>
@@ -17235,8 +18337,8 @@
       <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B74">
-        <v>0.12631578947368399</v>
+      <c r="B74" s="6">
+        <v>0.119298245614035</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -17260,7 +18362,7 @@
         <v>0.01</v>
       </c>
       <c r="B92" s="5">
-        <v>0.133333333333333</v>
+        <v>0.120467836257309</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -17268,7 +18370,7 @@
         <v>0.02</v>
       </c>
       <c r="B93" s="5">
-        <v>0.11812865497076</v>
+        <v>0.119298245614035</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -17276,7 +18378,7 @@
         <v>0.03</v>
       </c>
       <c r="B94" s="5">
-        <v>0.11578947368421</v>
+        <v>0.123976608187134</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -17284,7 +18386,7 @@
         <v>0.04</v>
       </c>
       <c r="B95" s="5">
-        <v>0.11812865497076</v>
+        <v>0.12514619883040901</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -17292,48 +18394,133 @@
         <v>0.05</v>
       </c>
       <c r="B96" s="5">
-        <v>0.11578947368421</v>
+        <v>0.120467836257309</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.06</v>
       </c>
       <c r="B97" s="5">
-        <v>0.116959064327485</v>
+        <v>0.130994152046783</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B98" s="5">
-        <v>0.11812865497076</v>
+        <v>0.123976608187134</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.08</v>
       </c>
       <c r="B99" s="5">
-        <v>0.11812865497076</v>
+        <v>0.120467836257309</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.09</v>
       </c>
       <c r="B100" s="5">
-        <v>0.119298245614035</v>
+        <v>0.123976608187134</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.1</v>
       </c>
       <c r="B101" s="5">
-        <v>0.11812865497076</v>
-      </c>
+        <v>0.119298245614035</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.6</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.119298245614035</v>
+      </c>
+      <c r="C111">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.65</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="C112">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.7</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.121637426900584</v>
+      </c>
+      <c r="C113">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.75</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.11578947368421</v>
+      </c>
+      <c r="C114">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.8</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.122807017543859</v>
+      </c>
+      <c r="C115">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.85</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.15906432748537999</v>
+      </c>
+      <c r="C116">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17346,7 +18533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
   <dimension ref="A4:N76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
@@ -17546,15 +18733,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
-  <dimension ref="C4:D57"/>
+  <dimension ref="C4:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
@@ -17619,6 +18807,64 @@
       </c>
       <c r="D57" s="2">
         <v>34.065934065934002</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70493115-F7B8-467D-9EBC-BA421899C0F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D73B7-5255-425E-A65C-B11FCA86B327}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
@@ -18150,8 +18150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="A4:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="M117" sqref="M117"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D73B7-5255-425E-A65C-B11FCA86B327}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285005F-87F9-460F-B903-8E2E55597A54}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="3" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="37">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -137,14 +137,18 @@
   <si>
     <t>Fitur Awal = 1407</t>
   </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -175,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,14 +187,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3874,6 +3879,557 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Skenario pengujian </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>learning rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> pada proses </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>training classifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> terhadap F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13570122484689418"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$C$75:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$75:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.098901098901003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.6593406593406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.439560439560402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.780219780219703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.219780219780198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.3406593406593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.3406593406593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.120879120879103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9549-4F29-A2CA-E1055DBCA35E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="903132176"/>
+        <c:axId val="1184720080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="903132176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Learning</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41238079615048118"/>
+              <c:y val="0.89719889180519097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184720080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184720080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.42706401283172934"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903132176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5687,7 +6243,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6267,7 +6823,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6720,6 +7276,7 @@
         <c:axId val="951779600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6786,7 +7343,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8175,6 +8732,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12017,6 +12614,509 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17139,6 +18239,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE4ACA3-4BCE-4242-802C-712B24468B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17458,29 +18594,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -17797,33 +18933,33 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -18150,8 +19286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="A4:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18181,7 +19317,7 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.119298245614035</v>
       </c>
       <c r="N6" t="s">
@@ -18242,7 +19378,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>0.119298245614035</v>
       </c>
       <c r="C23" s="2"/>
@@ -18315,7 +19451,7 @@
       <c r="A57" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>0.119298245614035</v>
       </c>
       <c r="M57" t="s">
@@ -18337,7 +19473,7 @@
       <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>0.119298245614035</v>
       </c>
     </row>
@@ -18361,7 +19497,7 @@
       <c r="A92">
         <v>0.01</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="3">
         <v>0.120467836257309</v>
       </c>
     </row>
@@ -18369,7 +19505,7 @@
       <c r="A93">
         <v>0.02</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="3">
         <v>0.119298245614035</v>
       </c>
     </row>
@@ -18377,7 +19513,7 @@
       <c r="A94">
         <v>0.03</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="3">
         <v>0.123976608187134</v>
       </c>
     </row>
@@ -18385,7 +19521,7 @@
       <c r="A95">
         <v>0.04</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="3">
         <v>0.12514619883040901</v>
       </c>
     </row>
@@ -18393,7 +19529,7 @@
       <c r="A96">
         <v>0.05</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="3">
         <v>0.120467836257309</v>
       </c>
     </row>
@@ -18401,7 +19537,7 @@
       <c r="A97">
         <v>0.06</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="3">
         <v>0.130994152046783</v>
       </c>
     </row>
@@ -18409,7 +19545,7 @@
       <c r="A98">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="3">
         <v>0.123976608187134</v>
       </c>
     </row>
@@ -18417,7 +19553,7 @@
       <c r="A99">
         <v>0.08</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="3">
         <v>0.120467836257309</v>
       </c>
     </row>
@@ -18425,7 +19561,7 @@
       <c r="A100">
         <v>0.09</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="3">
         <v>0.123976608187134</v>
       </c>
     </row>
@@ -18433,7 +19569,7 @@
       <c r="A101">
         <v>0.1</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="3">
         <v>0.119298245614035</v>
       </c>
     </row>
@@ -18457,7 +19593,7 @@
       <c r="A111">
         <v>0.6</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="3">
         <v>0.119298245614035</v>
       </c>
       <c r="C111">
@@ -18468,7 +19604,7 @@
       <c r="A112">
         <v>0.65</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="3">
         <v>0.12631578947368399</v>
       </c>
       <c r="C112">
@@ -18479,7 +19615,7 @@
       <c r="A113">
         <v>0.7</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="3">
         <v>0.121637426900584</v>
       </c>
       <c r="C113">
@@ -18490,7 +19626,7 @@
       <c r="A114">
         <v>0.75</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="3">
         <v>0.11578947368421</v>
       </c>
       <c r="C114">
@@ -18501,7 +19637,7 @@
       <c r="A115">
         <v>0.8</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="3">
         <v>0.122807017543859</v>
       </c>
       <c r="C115">
@@ -18512,7 +19648,7 @@
       <c r="A116">
         <v>0.85</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="3">
         <v>0.15906432748537999</v>
       </c>
       <c r="C116">
@@ -18520,7 +19656,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="5"/>
+      <c r="B117" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18735,7 +19871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
@@ -18814,55 +19950,79 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>0.01</v>
       </c>
+      <c r="D75" s="4">
+        <v>61.098901098901003</v>
+      </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>0.02</v>
       </c>
+      <c r="D76" s="4">
+        <v>60.6593406593406</v>
+      </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>0.03</v>
       </c>
+      <c r="D77" s="4">
+        <v>60.439560439560402</v>
+      </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>0.04</v>
       </c>
+      <c r="D78" s="4">
+        <v>59.780219780219703</v>
+      </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>0.05</v>
       </c>
+      <c r="D79" s="4">
+        <v>60.219780219780198</v>
+      </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>0.06</v>
       </c>
+      <c r="D80" s="4">
+        <v>59.3406593406593</v>
+      </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="D81" s="4">
+        <v>59.3406593406593</v>
+      </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>0.08</v>
       </c>
+      <c r="D82" s="4">
+        <v>59.120879120879103</v>
+      </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>0.09</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>0.1</v>
       </c>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285005F-87F9-460F-B903-8E2E55597A54}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5063D00-3784-4161-B8D2-18139A11DEAE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="3" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
   <si>
     <t>Kelas Multi</t>
   </si>
@@ -140,6 +140,9 @@
   <si>
     <t>F1-Score</t>
   </si>
+  <si>
+    <t>Fitur Awal = 1795</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4133,6 +4139,12 @@
                   <c:v>59.3406593406593</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>59.120879120879103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.120879120879103</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>59.120879120879103</c:v>
                 </c:pt>
               </c:numCache>
@@ -19287,7 +19299,7 @@
   <dimension ref="A4:N117"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+      <selection activeCell="A111" sqref="A111:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19869,10 +19881,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
-  <dimension ref="C4:D84"/>
+  <dimension ref="C4:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20001,7 +20013,7 @@
         <v>59.3406593406593</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -20009,7 +20021,7 @@
         <v>59.3406593406593</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>0.08</v>
       </c>
@@ -20017,14 +20029,72 @@
         <v>59.120879120879103</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>0.09</v>
       </c>
+      <c r="D83" s="4">
+        <v>59.120879120879103</v>
+      </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>0.1</v>
+      </c>
+      <c r="D84" s="8">
+        <v>59.120879120879103</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>0.6</v>
+      </c>
+      <c r="D95">
+        <v>65.274725274725199</v>
+      </c>
+      <c r="E95">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5063D00-3784-4161-B8D2-18139A11DEAE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5FFF2-A0D5-4244-A956-A7B9E944EEC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="3" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
@@ -4442,6 +4442,510 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Skenario pengujian threshold Information Gain terhadap hasil F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1225"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$C$95:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafik Kelas Kitab'!$D$95:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65.274725274725199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.175824175824104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.516483516483497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.3186813186813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.098901098901003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.241758241758198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94E4-48B3-AFF4-81B588C66A45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="872963200"/>
+        <c:axId val="853970992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="872963200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threshold Information Gain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32750568678915137"/>
+              <c:y val="0.89719889180519097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853970992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853970992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="66"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.42706401283172934"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872963200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8784,6 +9288,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13129,6 +13673,509 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18287,6 +19334,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395B9473-ADAD-46FC-B966-BD2C2CC071CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19299,7 +20382,7 @@
   <dimension ref="A4:N117"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A116"/>
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19883,8 +20966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20065,7 +21148,7 @@
       <c r="C95">
         <v>0.6</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="4">
         <v>65.274725274725199</v>
       </c>
       <c r="E95">
@@ -20076,25 +21159,55 @@
       <c r="C96">
         <v>0.65</v>
       </c>
+      <c r="D96" s="4">
+        <v>64.175824175824104</v>
+      </c>
+      <c r="E96">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>0.7</v>
       </c>
+      <c r="D97" s="4">
+        <v>63.516483516483497</v>
+      </c>
+      <c r="E97">
+        <v>1787</v>
+      </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>0.75</v>
       </c>
+      <c r="D98" s="4">
+        <v>61.3186813186813</v>
+      </c>
+      <c r="E98">
+        <v>1779</v>
+      </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>0.8</v>
       </c>
+      <c r="D99" s="4">
+        <v>61.098901098901003</v>
+      </c>
+      <c r="E99">
+        <v>1755</v>
+      </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>0.85</v>
+      </c>
+      <c r="D100" s="4">
+        <v>58.241758241758198</v>
+      </c>
+      <c r="E100">
+        <v>1685</v>
       </c>
     </row>
   </sheetData>

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5FFF2-A0D5-4244-A956-A7B9E944EEC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222A0F6-CE06-400B-9EA6-671CB43396A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="3" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2325,13 +2325,13 @@
             <c:numRef>
               <c:f>'Grafik Kelas Kitab'!$D$4:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64.175824175824104</c:v>
+                  <c:v>61.758241758241702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.999999999999901</c:v>
+                  <c:v>59.120879120879103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,6 +2378,7 @@
         <c:axId val="2027245055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="65"/>
           <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2445,7 +2446,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3236,10 +3237,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4183.3899998699999</c:v>
+                  <c:v>4149.2430000300001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5192.1569998300001</c:v>
+                  <c:v>4611.3300001600001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,6 +3287,7 @@
         <c:axId val="1878525359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3386,6 +3388,7 @@
         <c:crossAx val="11135183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -20381,8 +20384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="A4:N117"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20764,7 +20767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C189C65-3264-487F-BD3B-A52D5FD63701}">
   <dimension ref="A4:N76"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
@@ -20966,8 +20969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20976,21 +20979,23 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
-        <v>64.175824175824104</v>
-      </c>
+      <c r="D4" s="4">
+        <v>61.758241758241702</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2">
-        <v>59.999999999999901</v>
-      </c>
+      <c r="D5" s="4">
+        <v>59.120879120879103</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -21013,7 +21018,7 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <v>4183.3899998699999</v>
+        <v>4149.2430000300001</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
@@ -21021,7 +21026,7 @@
         <v>21</v>
       </c>
       <c r="D39">
-        <v>5192.1569998300001</v>
+        <v>4611.3300001600001</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">

--- a/code/hasilPengujian.xlsx
+++ b/code/hasilPengujian.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tugas_Akhir\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS\TEL-U\SEMESTER 8\Tugas_Akhir\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222A0F6-CE06-400B-9EA6-671CB43396A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7681301C-54F9-4981-AF26-A635B167FB06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{F8770FB3-6BFE-43F0-90E3-E824468A8B46}"/>
   </bookViews>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,14 +193,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2789,7 +2790,7 @@
             <c:numRef>
               <c:f>'Grafik Kelas Kitab'!$D$21:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>64.175824175824104</c:v>
@@ -2910,7 +2911,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3234,7 +3235,7 @@
             <c:numRef>
               <c:f>'Grafik Kelas Kitab'!$D$38:$D$39</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4149.2430000300001</c:v>
@@ -3354,7 +3355,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -19692,29 +19693,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -20031,33 +20032,33 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -20384,8 +20385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7480-A16B-4E9E-A632-9AD3DC59C37F}">
   <dimension ref="A4:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20969,8 +20970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C5C01-989F-4509-9395-38084A47BC70}">
   <dimension ref="C4:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21001,7 +21002,7 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="6">
         <v>64.175824175824104</v>
       </c>
     </row>
@@ -21009,7 +21010,7 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>63.076923076923002</v>
       </c>
     </row>
@@ -21017,7 +21018,7 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>4149.2430000300001</v>
       </c>
     </row>
@@ -21025,7 +21026,7 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <v>4611.3300001600001</v>
       </c>
     </row>
@@ -21129,7 +21130,7 @@
       <c r="C84">
         <v>0.1</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="6">
         <v>59.120879120879103</v>
       </c>
     </row>
